--- a/excel/nanfang/exportedExcel.xlsx
+++ b/excel/nanfang/exportedExcel.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyan\Desktop\NBgupiao\stockapp\public\excel\nanfang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q.ou\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43681BF1-DDBC-4FF6-8E35-E1A4DD47A8CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFC742D2-B9B5-4BB5-9C9B-B6BEC877F42E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{83DD4442-32B2-46DD-9B94-766AA6F35466}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B93A27A4-8CAD-4DC0-8BDF-705DBA0D0D7F}"/>
   </bookViews>
   <sheets>
     <sheet name="exportedData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -162,6 +165,9 @@
     <t>债务股本比</t>
   </si>
   <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
     <t>2020-12-31</t>
   </si>
   <si>
@@ -244,9 +250,6 @@
   </si>
   <si>
     <t>2014-03-31</t>
-  </si>
-  <si>
-    <t>2013-12-31</t>
   </si>
 </sst>
 </file>
@@ -355,7 +358,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{7FBAABE0-9F15-415D-B2AE-EA39F00AB55A}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{11F30F2A-FEC0-491B-8773-37270EE8F7B1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -666,7 +669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD9A068-F33E-4023-AC8B-1BE8C6721602}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A39ADF8-1909-4547-B7B1-468D966E6617}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:AD57"/>
   <sheetViews>
@@ -876,91 +879,91 @@
         <v>1</v>
       </c>
       <c r="B3" s="8">
+        <v>-40.06</v>
+      </c>
+      <c r="C3" s="8">
         <v>-33.79</v>
       </c>
-      <c r="C3" s="8">
+      <c r="D3" s="8">
         <v>7.11</v>
       </c>
-      <c r="D3" s="8">
+      <c r="E3" s="8">
         <v>-29.12</v>
       </c>
-      <c r="E3" s="8">
+      <c r="F3" s="8">
         <v>-52.62</v>
       </c>
-      <c r="F3" s="8">
+      <c r="G3" s="8">
         <v>-14.27</v>
       </c>
-      <c r="G3" s="8">
+      <c r="H3" s="8">
         <v>23.88</v>
       </c>
-      <c r="H3" s="8">
+      <c r="I3" s="8">
         <v>-9.59</v>
       </c>
-      <c r="I3" s="8">
+      <c r="J3" s="8">
         <v>26.49</v>
       </c>
-      <c r="J3" s="8">
+      <c r="K3" s="8">
         <v>-11.92</v>
       </c>
-      <c r="K3" s="8">
+      <c r="L3" s="8">
         <v>20.38</v>
       </c>
-      <c r="L3" s="8">
+      <c r="M3" s="8">
         <v>-4.07</v>
       </c>
-      <c r="M3" s="8">
+      <c r="N3" s="8">
         <v>25.44</v>
       </c>
-      <c r="N3" s="8">
+      <c r="O3" s="8">
         <v>-11.36</v>
       </c>
-      <c r="O3" s="8">
+      <c r="P3" s="8">
         <v>42.82</v>
       </c>
-      <c r="P3" s="8">
+      <c r="Q3" s="8">
         <v>12.18</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="R3" s="8">
         <v>15.5</v>
       </c>
-      <c r="R3" s="8">
+      <c r="S3" s="8">
         <v>-13.85</v>
       </c>
-      <c r="S3" s="8">
+      <c r="T3" s="8">
         <v>33.090000000000003</v>
       </c>
-      <c r="T3" s="8">
+      <c r="U3" s="8">
         <v>4.3899999999999997</v>
       </c>
-      <c r="U3" s="8">
+      <c r="V3" s="8">
         <v>26.93</v>
       </c>
-      <c r="V3" s="8">
+      <c r="W3" s="8">
         <v>-7.94</v>
       </c>
-      <c r="W3" s="8">
+      <c r="X3" s="8">
         <v>12.04</v>
       </c>
-      <c r="X3" s="8">
+      <c r="Y3" s="8">
         <v>15.79</v>
       </c>
-      <c r="Y3" s="8">
+      <c r="Z3" s="8">
         <v>19.03</v>
       </c>
-      <c r="Z3" s="8">
+      <c r="AA3" s="8">
         <v>5.17</v>
       </c>
-      <c r="AA3" s="8">
+      <c r="AB3" s="8">
         <v>22.74</v>
       </c>
-      <c r="AB3" s="8">
+      <c r="AC3" s="8">
         <v>-7.12</v>
       </c>
-      <c r="AC3" s="8">
+      <c r="AD3" s="8">
         <v>-3.06</v>
-      </c>
-      <c r="AD3" s="8">
-        <v>-5.65</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -968,91 +971,91 @@
         <v>2</v>
       </c>
       <c r="B4" s="8">
+        <v>-38.479999999999997</v>
+      </c>
+      <c r="C4" s="8">
         <v>-38.42</v>
       </c>
-      <c r="C4" s="8">
+      <c r="D4" s="8">
         <v>6.02</v>
       </c>
-      <c r="D4" s="8">
+      <c r="E4" s="8">
         <v>-30.65</v>
       </c>
-      <c r="E4" s="8">
+      <c r="F4" s="8">
         <v>-53.53</v>
       </c>
-      <c r="F4" s="8">
+      <c r="G4" s="8">
         <v>-16.5</v>
       </c>
-      <c r="G4" s="8">
+      <c r="H4" s="8">
         <v>21.67</v>
       </c>
-      <c r="H4" s="8">
+      <c r="I4" s="8">
         <v>-10.25</v>
       </c>
-      <c r="I4" s="8">
+      <c r="J4" s="8">
         <v>24.59</v>
       </c>
-      <c r="J4" s="8">
+      <c r="K4" s="8">
         <v>-13.16</v>
       </c>
-      <c r="K4" s="8">
+      <c r="L4" s="8">
         <v>18.23</v>
       </c>
-      <c r="L4" s="8">
+      <c r="M4" s="8">
         <v>-5.48</v>
       </c>
-      <c r="M4" s="8">
+      <c r="N4" s="8">
         <v>23.83</v>
       </c>
-      <c r="N4" s="8">
+      <c r="O4" s="8">
         <v>-13.26</v>
       </c>
-      <c r="O4" s="8">
+      <c r="P4" s="8">
         <v>40.6</v>
       </c>
-      <c r="P4" s="8">
+      <c r="Q4" s="8">
         <v>10.67</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="R4" s="8">
         <v>14.11</v>
       </c>
-      <c r="R4" s="8">
+      <c r="S4" s="8">
         <v>-14.8</v>
       </c>
-      <c r="S4" s="8">
+      <c r="T4" s="8">
         <v>30.64</v>
       </c>
-      <c r="T4" s="8">
+      <c r="U4" s="8">
         <v>3.27</v>
       </c>
-      <c r="U4" s="8">
+      <c r="V4" s="8">
         <v>25.14</v>
       </c>
-      <c r="V4" s="8">
+      <c r="W4" s="8">
         <v>-10.78</v>
       </c>
-      <c r="W4" s="8">
+      <c r="X4" s="8">
         <v>10.79</v>
       </c>
-      <c r="X4" s="8">
+      <c r="Y4" s="8">
         <v>14.82</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Z4" s="8">
         <v>18.32</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="AA4" s="8">
         <v>3.37</v>
       </c>
-      <c r="AA4" s="8">
+      <c r="AB4" s="8">
         <v>21.96</v>
       </c>
-      <c r="AB4" s="8">
+      <c r="AC4" s="8">
         <v>-7.88</v>
       </c>
-      <c r="AC4" s="8">
+      <c r="AD4" s="8">
         <v>-3.24</v>
-      </c>
-      <c r="AD4" s="8">
-        <v>-5.84</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -1060,91 +1063,91 @@
         <v>3</v>
       </c>
       <c r="B5" s="8">
+        <v>212.53</v>
+      </c>
+      <c r="C5" s="8">
         <v>272.11</v>
       </c>
-      <c r="C5" s="8">
+      <c r="D5" s="8">
         <v>263.86</v>
       </c>
-      <c r="D5" s="8">
+      <c r="E5" s="8">
         <v>178.23</v>
       </c>
-      <c r="E5" s="8">
+      <c r="F5" s="8">
         <v>211.41</v>
       </c>
-      <c r="F5" s="8">
+      <c r="G5" s="8">
         <v>376.57</v>
       </c>
-      <c r="G5" s="8">
+      <c r="H5" s="8">
         <v>437.26</v>
       </c>
-      <c r="H5" s="8">
+      <c r="I5" s="8">
         <v>353.06</v>
       </c>
-      <c r="I5" s="8">
+      <c r="J5" s="8">
         <v>376.33</v>
       </c>
-      <c r="J5" s="8">
+      <c r="K5" s="8">
         <v>347.34</v>
       </c>
-      <c r="K5" s="8">
+      <c r="L5" s="8">
         <v>413.34</v>
       </c>
-      <c r="L5" s="8">
+      <c r="M5" s="8">
         <v>334.54</v>
       </c>
-      <c r="M5" s="8">
+      <c r="N5" s="8">
         <v>341.01</v>
       </c>
-      <c r="N5" s="8">
+      <c r="O5" s="8">
         <v>313.56</v>
       </c>
-      <c r="O5" s="8">
+      <c r="P5" s="8">
         <v>358.05</v>
       </c>
-      <c r="P5" s="8">
+      <c r="Q5" s="8">
         <v>293.55</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="R5" s="8">
         <v>309.73</v>
       </c>
-      <c r="R5" s="8">
+      <c r="S5" s="8">
         <v>281.51</v>
       </c>
-      <c r="S5" s="8">
+      <c r="T5" s="8">
         <v>325.74</v>
       </c>
-      <c r="T5" s="8">
+      <c r="U5" s="8">
         <v>260.72000000000003</v>
       </c>
-      <c r="U5" s="8">
+      <c r="V5" s="8">
         <v>280.06</v>
       </c>
-      <c r="V5" s="8">
+      <c r="W5" s="8">
         <v>261.49</v>
       </c>
-      <c r="W5" s="8">
+      <c r="X5" s="8">
         <v>320.24</v>
       </c>
-      <c r="X5" s="8">
+      <c r="Y5" s="8">
         <v>256.08999999999997</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Z5" s="8">
         <v>277.18</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="AA5" s="8">
         <v>264.86</v>
       </c>
-      <c r="AA5" s="8">
+      <c r="AB5" s="8">
         <v>316.14999999999998</v>
       </c>
-      <c r="AB5" s="8">
+      <c r="AC5" s="8">
         <v>242.61</v>
       </c>
-      <c r="AC5" s="8">
+      <c r="AD5" s="8">
         <v>259.51</v>
-      </c>
-      <c r="AD5" s="8">
-        <v>237.06</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -1152,91 +1155,91 @@
         <v>4</v>
       </c>
       <c r="B6" s="8">
+        <v>-0.51</v>
+      </c>
+      <c r="C6" s="8">
         <v>50.72</v>
       </c>
-      <c r="C6" s="8">
+      <c r="D6" s="8">
         <v>84.22</v>
       </c>
-      <c r="D6" s="8">
+      <c r="E6" s="8">
         <v>37.93</v>
       </c>
-      <c r="E6" s="8">
+      <c r="F6" s="8">
         <v>-82.38</v>
       </c>
-      <c r="F6" s="8">
+      <c r="G6" s="8">
         <v>133.46</v>
       </c>
-      <c r="G6" s="8">
+      <c r="H6" s="8">
         <v>112.92</v>
       </c>
-      <c r="H6" s="8">
+      <c r="I6" s="8">
         <v>83.97</v>
       </c>
-      <c r="I6" s="8">
+      <c r="J6" s="8">
         <v>50.87</v>
       </c>
-      <c r="J6" s="8">
+      <c r="K6" s="8">
         <v>31.28</v>
       </c>
-      <c r="K6" s="8">
+      <c r="L6" s="8">
         <v>70.64</v>
       </c>
-      <c r="L6" s="8">
+      <c r="M6" s="8">
         <v>48.77</v>
       </c>
-      <c r="M6" s="8">
+      <c r="N6" s="8">
         <v>45.16</v>
       </c>
-      <c r="N6" s="8">
+      <c r="O6" s="8">
         <v>42.8</v>
       </c>
-      <c r="O6" s="8">
+      <c r="P6" s="8">
         <v>81.92</v>
       </c>
-      <c r="P6" s="8">
+      <c r="Q6" s="8">
         <v>61.13</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="R6" s="8">
         <v>28.19</v>
       </c>
-      <c r="R6" s="8">
+      <c r="S6" s="8">
         <v>58.21</v>
       </c>
-      <c r="S6" s="8">
+      <c r="T6" s="8">
         <v>110.07</v>
       </c>
-      <c r="T6" s="8">
+      <c r="U6" s="8">
         <v>46.86</v>
       </c>
-      <c r="U6" s="8">
+      <c r="V6" s="8">
         <v>48.76</v>
       </c>
-      <c r="V6" s="8">
+      <c r="W6" s="8">
         <v>62.44</v>
       </c>
-      <c r="W6" s="8">
+      <c r="X6" s="8">
         <v>82.39</v>
       </c>
-      <c r="X6" s="8">
+      <c r="Y6" s="8">
         <v>57.94</v>
       </c>
-      <c r="Y6" s="8">
+      <c r="Z6" s="8">
         <v>54.41</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="AA6" s="8">
         <v>46.03</v>
       </c>
-      <c r="AA6" s="8">
+      <c r="AB6" s="8">
         <v>68.55</v>
       </c>
-      <c r="AB6" s="8">
+      <c r="AC6" s="8">
         <v>26.71</v>
       </c>
-      <c r="AC6" s="8">
+      <c r="AD6" s="8">
         <v>9.8699999999999992</v>
-      </c>
-      <c r="AD6" s="8">
-        <v>-1.25</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -1244,91 +1247,91 @@
         <v>5</v>
       </c>
       <c r="B7" s="8">
+        <v>42.84</v>
+      </c>
+      <c r="C7" s="8">
         <v>70.72</v>
       </c>
-      <c r="C7" s="8">
+      <c r="D7" s="8">
         <v>10.02</v>
       </c>
-      <c r="D7" s="8">
+      <c r="E7" s="8">
         <v>16.940000000000001</v>
       </c>
-      <c r="E7" s="8">
+      <c r="F7" s="8">
         <v>12.93</v>
       </c>
-      <c r="F7" s="8">
+      <c r="G7" s="8">
         <v>33.08</v>
       </c>
-      <c r="G7" s="8">
+      <c r="H7" s="8">
         <v>14.79</v>
       </c>
-      <c r="H7" s="8">
+      <c r="I7" s="8">
         <v>56.71</v>
       </c>
-      <c r="I7" s="8">
+      <c r="J7" s="8">
         <v>51.64</v>
       </c>
-      <c r="J7" s="8">
+      <c r="K7" s="8">
         <v>103.96</v>
       </c>
-      <c r="K7" s="8">
+      <c r="L7" s="8">
         <v>41.81</v>
       </c>
-      <c r="L7" s="8">
+      <c r="M7" s="8">
         <v>65.92</v>
       </c>
-      <c r="M7" s="8">
+      <c r="N7" s="8">
         <v>28.64</v>
       </c>
-      <c r="N7" s="8">
+      <c r="O7" s="8">
         <v>42.45</v>
       </c>
-      <c r="O7" s="8">
+      <c r="P7" s="8">
         <v>41.64</v>
       </c>
-      <c r="P7" s="8">
+      <c r="Q7" s="8">
         <v>36.799999999999997</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="R7" s="8">
         <v>17.57</v>
       </c>
-      <c r="R7" s="8">
+      <c r="S7" s="8">
         <v>102.49</v>
       </c>
-      <c r="S7" s="8">
+      <c r="T7" s="8">
         <v>52.47</v>
       </c>
-      <c r="T7" s="8">
+      <c r="U7" s="8">
         <v>1.77</v>
       </c>
-      <c r="U7" s="8">
+      <c r="V7" s="8">
         <v>33.01</v>
       </c>
-      <c r="V7" s="8">
+      <c r="W7" s="8">
         <v>64.14</v>
       </c>
-      <c r="W7" s="8">
+      <c r="X7" s="8">
         <v>10.050000000000001</v>
       </c>
-      <c r="X7" s="8">
+      <c r="Y7" s="8">
         <v>3.57</v>
       </c>
-      <c r="Y7" s="8">
+      <c r="Z7" s="8">
         <v>39.82</v>
       </c>
-      <c r="Z7" s="8">
+      <c r="AA7" s="8">
         <v>30.97</v>
       </c>
-      <c r="AA7" s="8">
+      <c r="AB7" s="8">
         <v>-10.72</v>
       </c>
-      <c r="AB7" s="8">
+      <c r="AC7" s="8">
         <v>32.08</v>
       </c>
-      <c r="AC7" s="8">
+      <c r="AD7" s="8">
         <v>29.99</v>
-      </c>
-      <c r="AD7" s="8">
-        <v>10.76</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -1336,91 +1339,91 @@
         <v>6</v>
       </c>
       <c r="B8" s="8">
+        <v>5.56</v>
+      </c>
+      <c r="C8" s="8">
         <v>1.49</v>
       </c>
-      <c r="C8" s="8">
+      <c r="D8" s="8">
         <v>22.49</v>
       </c>
-      <c r="D8" s="8">
+      <c r="E8" s="8">
         <v>2.4300000000000002</v>
       </c>
-      <c r="E8" s="8">
+      <c r="F8" s="8">
         <v>2.0699999999999998</v>
       </c>
-      <c r="F8" s="8">
+      <c r="G8" s="8">
         <v>2.6</v>
       </c>
-      <c r="G8" s="8">
+      <c r="H8" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H8" s="8">
+      <c r="I8" s="8">
         <v>2.71</v>
       </c>
-      <c r="I8" s="8">
+      <c r="J8" s="8">
         <v>2.69</v>
       </c>
-      <c r="J8" s="8">
+      <c r="K8" s="8">
         <v>-4.38</v>
       </c>
-      <c r="K8" s="8">
+      <c r="L8" s="8">
         <v>15.12</v>
       </c>
-      <c r="L8" s="8">
+      <c r="M8" s="8">
         <v>7.88</v>
       </c>
-      <c r="M8" s="8">
+      <c r="N8" s="8">
         <v>16.88</v>
       </c>
-      <c r="N8" s="8">
+      <c r="O8" s="8">
         <v>8.65</v>
       </c>
-      <c r="O8" s="8">
+      <c r="P8" s="8">
         <v>27.36</v>
       </c>
-      <c r="P8" s="8">
+      <c r="Q8" s="8">
         <v>10.84</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="R8" s="8">
         <v>12.37</v>
       </c>
-      <c r="R8" s="8">
+      <c r="S8" s="8">
         <v>10.61</v>
       </c>
-      <c r="S8" s="8">
+      <c r="T8" s="8">
         <v>5.01</v>
       </c>
-      <c r="T8" s="8">
+      <c r="U8" s="8">
         <v>8.11</v>
       </c>
-      <c r="U8" s="8">
+      <c r="V8" s="8">
         <v>7.38</v>
       </c>
-      <c r="V8" s="8">
+      <c r="W8" s="8">
         <v>30.62</v>
       </c>
-      <c r="W8" s="8">
+      <c r="X8" s="8">
         <v>0</v>
       </c>
-      <c r="X8" s="8">
+      <c r="Y8" s="8">
         <v>0.75</v>
       </c>
-      <c r="Y8" s="8">
+      <c r="Z8" s="8">
         <v>0.59</v>
       </c>
-      <c r="Z8" s="8">
+      <c r="AA8" s="8">
         <v>13.24</v>
       </c>
-      <c r="AA8" s="8">
+      <c r="AB8" s="8">
         <v>1.93</v>
       </c>
-      <c r="AB8" s="8">
+      <c r="AC8" s="8">
         <v>0.69</v>
       </c>
-      <c r="AC8" s="8">
+      <c r="AD8" s="8">
         <v>0.25</v>
-      </c>
-      <c r="AD8" s="8">
-        <v>-0.31</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -1428,91 +1431,91 @@
         <v>7</v>
       </c>
       <c r="B9" s="8">
+        <v>-35.520000000000003</v>
+      </c>
+      <c r="C9" s="8">
         <v>-62.04</v>
       </c>
-      <c r="C9" s="8">
+      <c r="D9" s="8">
         <v>15.38</v>
       </c>
-      <c r="D9" s="8">
+      <c r="E9" s="8">
         <v>-20.23</v>
       </c>
-      <c r="E9" s="8">
+      <c r="F9" s="8">
         <v>-10.65</v>
       </c>
-      <c r="F9" s="8">
+      <c r="G9" s="8">
         <v>-29.53</v>
       </c>
-      <c r="G9" s="8">
+      <c r="H9" s="8">
         <v>-13.82</v>
       </c>
-      <c r="H9" s="8">
+      <c r="I9" s="8">
         <v>-58.79</v>
       </c>
-      <c r="I9" s="8">
+      <c r="J9" s="8">
         <v>-44.1</v>
       </c>
-      <c r="J9" s="8">
+      <c r="K9" s="8">
         <v>-110.39</v>
       </c>
-      <c r="K9" s="8">
+      <c r="L9" s="8">
         <v>-25.75</v>
       </c>
-      <c r="L9" s="8">
+      <c r="M9" s="8">
         <v>-57.49</v>
       </c>
-      <c r="M9" s="8">
+      <c r="N9" s="8">
         <v>-11.45</v>
       </c>
-      <c r="N9" s="8">
+      <c r="O9" s="8">
         <v>-34.29</v>
       </c>
-      <c r="O9" s="8">
+      <c r="P9" s="8">
         <v>-18.489999999999998</v>
       </c>
-      <c r="P9" s="8">
+      <c r="Q9" s="8">
         <v>-26.7</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="R9" s="8">
         <v>-4.97</v>
       </c>
-      <c r="R9" s="8">
+      <c r="S9" s="8">
         <v>-93.94</v>
       </c>
-      <c r="S9" s="8">
+      <c r="T9" s="8">
         <v>-47.38</v>
       </c>
-      <c r="T9" s="8">
+      <c r="U9" s="8">
         <v>9.26</v>
       </c>
-      <c r="U9" s="8">
+      <c r="V9" s="8">
         <v>-28.63</v>
       </c>
-      <c r="V9" s="8">
+      <c r="W9" s="8">
         <v>-31.89</v>
       </c>
-      <c r="W9" s="8">
+      <c r="X9" s="8">
         <v>-9.24</v>
       </c>
-      <c r="X9" s="8">
+      <c r="Y9" s="8">
         <v>-2.71</v>
       </c>
-      <c r="Y9" s="8">
+      <c r="Z9" s="8">
         <v>-38.880000000000003</v>
       </c>
-      <c r="Z9" s="8">
+      <c r="AA9" s="8">
         <v>-22.6</v>
       </c>
-      <c r="AA9" s="8">
+      <c r="AB9" s="8">
         <v>13.38</v>
       </c>
-      <c r="AB9" s="8">
+      <c r="AC9" s="8">
         <v>-30.42</v>
       </c>
-      <c r="AC9" s="8">
+      <c r="AD9" s="8">
         <v>-28.55</v>
-      </c>
-      <c r="AD9" s="8">
-        <v>-10.47</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -1520,91 +1523,91 @@
         <v>8</v>
       </c>
       <c r="B10" s="8">
+        <v>32.020000000000003</v>
+      </c>
+      <c r="C10" s="8">
         <v>101.8</v>
       </c>
-      <c r="C10" s="8">
+      <c r="D10" s="8">
         <v>-109.28</v>
       </c>
-      <c r="D10" s="8">
+      <c r="E10" s="8">
         <v>138.9</v>
       </c>
-      <c r="E10" s="8">
+      <c r="F10" s="8">
         <v>91.57</v>
       </c>
-      <c r="F10" s="8">
+      <c r="G10" s="8">
         <v>-95.43</v>
       </c>
-      <c r="G10" s="8">
+      <c r="H10" s="8">
         <v>-104.65</v>
       </c>
-      <c r="H10" s="8">
+      <c r="I10" s="8">
         <v>-65.17</v>
       </c>
-      <c r="I10" s="8">
+      <c r="J10" s="8">
         <v>-23.22</v>
       </c>
-      <c r="J10" s="8">
+      <c r="K10" s="8">
         <v>-6.18</v>
       </c>
-      <c r="K10" s="8">
+      <c r="L10" s="8">
         <v>56.26</v>
       </c>
-      <c r="L10" s="8">
+      <c r="M10" s="8">
         <v>2.27</v>
       </c>
-      <c r="M10" s="8">
+      <c r="N10" s="8">
         <v>-42.7</v>
       </c>
-      <c r="N10" s="8">
+      <c r="O10" s="8">
         <v>0.62</v>
       </c>
-      <c r="O10" s="8">
+      <c r="P10" s="8">
         <v>-46.79</v>
       </c>
-      <c r="P10" s="8">
+      <c r="Q10" s="8">
         <v>-39.53</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="R10" s="8">
         <v>-19.84</v>
       </c>
-      <c r="R10" s="8">
+      <c r="S10" s="8">
         <v>37.229999999999997</v>
       </c>
-      <c r="S10" s="8">
+      <c r="T10" s="8">
         <v>-83.57</v>
       </c>
-      <c r="T10" s="8">
+      <c r="U10" s="8">
         <v>-27.5</v>
       </c>
-      <c r="U10" s="8">
+      <c r="V10" s="8">
         <v>-37.36</v>
       </c>
-      <c r="V10" s="8">
+      <c r="W10" s="8">
         <v>-31.18</v>
       </c>
-      <c r="W10" s="8">
+      <c r="X10" s="8">
         <v>-139.85</v>
       </c>
-      <c r="X10" s="8">
+      <c r="Y10" s="8">
         <v>-79.900000000000006</v>
       </c>
-      <c r="Y10" s="8">
+      <c r="Z10" s="8">
         <v>-49.44</v>
       </c>
-      <c r="Z10" s="8">
+      <c r="AA10" s="8">
         <v>-12.24</v>
       </c>
-      <c r="AA10" s="8">
+      <c r="AB10" s="8">
         <v>-52.64</v>
       </c>
-      <c r="AB10" s="8">
+      <c r="AC10" s="8">
         <v>26.37</v>
       </c>
-      <c r="AC10" s="8">
+      <c r="AD10" s="8">
         <v>12.65</v>
-      </c>
-      <c r="AD10" s="8">
-        <v>-25.46</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -1612,91 +1615,91 @@
         <v>9</v>
       </c>
       <c r="B11" s="8">
+        <v>234.61</v>
+      </c>
+      <c r="C11" s="8">
         <v>273.31</v>
       </c>
-      <c r="C11" s="8">
+      <c r="D11" s="8">
         <v>244.28</v>
       </c>
-      <c r="D11" s="8">
+      <c r="E11" s="8">
         <v>192.04</v>
       </c>
-      <c r="E11" s="8">
+      <c r="F11" s="8">
         <v>239.4</v>
       </c>
-      <c r="F11" s="8">
+      <c r="G11" s="8">
         <v>361.21</v>
       </c>
-      <c r="G11" s="8">
+      <c r="H11" s="8">
         <v>351.02</v>
       </c>
-      <c r="H11" s="8">
+      <c r="I11" s="8">
         <v>323.73</v>
       </c>
-      <c r="I11" s="8">
+      <c r="J11" s="8">
         <v>320.72000000000003</v>
       </c>
-      <c r="J11" s="8">
+      <c r="K11" s="8">
         <v>344.75</v>
       </c>
-      <c r="K11" s="8">
+      <c r="L11" s="8">
         <v>340.24</v>
       </c>
-      <c r="L11" s="8">
+      <c r="M11" s="8">
         <v>309.45999999999998</v>
       </c>
-      <c r="M11" s="8">
+      <c r="N11" s="8">
         <v>291.68</v>
       </c>
-      <c r="N11" s="8">
+      <c r="O11" s="8">
         <v>306.45999999999998</v>
       </c>
-      <c r="O11" s="8">
+      <c r="P11" s="8">
         <v>280.58</v>
       </c>
-      <c r="P11" s="8">
+      <c r="Q11" s="8">
         <v>265.79000000000002</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="R11" s="8">
         <v>264.04000000000002</v>
       </c>
-      <c r="R11" s="8">
+      <c r="S11" s="8">
         <v>266.52</v>
       </c>
-      <c r="S11" s="8">
+      <c r="T11" s="8">
         <v>254.51</v>
       </c>
-      <c r="T11" s="8">
+      <c r="U11" s="8">
         <v>224.39</v>
       </c>
-      <c r="U11" s="8">
+      <c r="V11" s="8">
         <v>218.26</v>
       </c>
-      <c r="V11" s="8">
+      <c r="W11" s="8">
         <v>238.78</v>
       </c>
-      <c r="W11" s="8">
+      <c r="X11" s="8">
         <v>239.21</v>
       </c>
-      <c r="X11" s="8">
+      <c r="Y11" s="8">
         <v>218.62</v>
       </c>
-      <c r="Y11" s="8">
+      <c r="Z11" s="8">
         <v>217.01</v>
       </c>
-      <c r="Z11" s="8">
+      <c r="AA11" s="8">
         <v>239.91</v>
       </c>
-      <c r="AA11" s="8">
+      <c r="AB11" s="8">
         <v>257.14</v>
       </c>
-      <c r="AB11" s="8">
+      <c r="AC11" s="8">
         <v>227.68</v>
       </c>
-      <c r="AC11" s="8">
+      <c r="AD11" s="8">
         <v>226.78</v>
-      </c>
-      <c r="AD11" s="8">
-        <v>224.51</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -1704,91 +1707,91 @@
         <v>10</v>
       </c>
       <c r="B12" s="8">
+        <v>11.31</v>
+      </c>
+      <c r="C12" s="8">
         <v>14.23</v>
       </c>
-      <c r="C12" s="8">
+      <c r="D12" s="8">
         <v>14.9</v>
       </c>
-      <c r="D12" s="8">
+      <c r="E12" s="8">
         <v>9.4600000000000009</v>
       </c>
-      <c r="E12" s="8">
+      <c r="F12" s="8">
         <v>13.89</v>
       </c>
-      <c r="F12" s="8">
+      <c r="G12" s="8">
         <v>26.12</v>
       </c>
-      <c r="G12" s="8">
+      <c r="H12" s="8">
         <v>19.78</v>
       </c>
-      <c r="H12" s="8">
+      <c r="I12" s="8">
         <v>16.62</v>
       </c>
-      <c r="I12" s="8">
+      <c r="J12" s="8">
         <v>16.71</v>
       </c>
-      <c r="J12" s="8">
+      <c r="K12" s="8">
         <v>19.96</v>
       </c>
-      <c r="K12" s="8">
+      <c r="L12" s="8">
         <v>17.91</v>
       </c>
-      <c r="L12" s="8">
+      <c r="M12" s="8">
         <v>16.62</v>
       </c>
-      <c r="M12" s="8">
+      <c r="N12" s="8">
         <v>16.37</v>
       </c>
-      <c r="N12" s="8">
+      <c r="O12" s="8">
         <v>20.7</v>
       </c>
-      <c r="O12" s="8">
+      <c r="P12" s="8">
         <v>17.27</v>
       </c>
-      <c r="P12" s="8">
+      <c r="Q12" s="8">
         <v>15.77</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="R12" s="8">
         <v>15.93</v>
       </c>
-      <c r="R12" s="8">
+      <c r="S12" s="8">
         <v>17.690000000000001</v>
       </c>
-      <c r="S12" s="8">
+      <c r="T12" s="8">
         <v>16.98</v>
       </c>
-      <c r="T12" s="8">
+      <c r="U12" s="8">
         <v>15.34</v>
       </c>
-      <c r="U12" s="8">
+      <c r="V12" s="8">
         <v>14.01</v>
       </c>
-      <c r="V12" s="8">
+      <c r="W12" s="8">
         <v>19.809999999999999</v>
       </c>
-      <c r="W12" s="8">
+      <c r="X12" s="8">
         <v>15.28</v>
       </c>
-      <c r="X12" s="8">
+      <c r="Y12" s="8">
         <v>16.670000000000002</v>
       </c>
-      <c r="Y12" s="8">
+      <c r="Z12" s="8">
         <v>19.05</v>
       </c>
-      <c r="Z12" s="8">
+      <c r="AA12" s="8">
         <v>21.5</v>
       </c>
-      <c r="AA12" s="8">
+      <c r="AB12" s="8">
         <v>21.19</v>
       </c>
-      <c r="AB12" s="8">
+      <c r="AC12" s="8">
         <v>18.77</v>
       </c>
-      <c r="AC12" s="8">
+      <c r="AD12" s="8">
         <v>18.010000000000002</v>
-      </c>
-      <c r="AD12" s="8">
-        <v>20.64</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -1796,91 +1799,91 @@
         <v>11</v>
       </c>
       <c r="B13" s="8">
+        <v>7.66</v>
+      </c>
+      <c r="C13" s="8">
         <v>12.61</v>
       </c>
-      <c r="C13" s="8">
+      <c r="D13" s="8">
         <v>10.130000000000001</v>
       </c>
-      <c r="D13" s="8">
+      <c r="E13" s="8">
         <v>8.84</v>
       </c>
-      <c r="E13" s="8">
+      <c r="F13" s="8">
         <v>8.31</v>
       </c>
-      <c r="F13" s="8">
+      <c r="G13" s="8">
         <v>13.05</v>
       </c>
-      <c r="G13" s="8">
+      <c r="H13" s="8">
         <v>10.39</v>
       </c>
-      <c r="H13" s="8">
+      <c r="I13" s="8">
         <v>8.6</v>
       </c>
-      <c r="I13" s="8">
+      <c r="J13" s="8">
         <v>8.36</v>
       </c>
-      <c r="J13" s="8">
+      <c r="K13" s="8">
         <v>12.53</v>
       </c>
-      <c r="K13" s="8">
+      <c r="L13" s="8">
         <v>9.56</v>
       </c>
-      <c r="L13" s="8">
+      <c r="M13" s="8">
         <v>8.31</v>
       </c>
-      <c r="M13" s="8">
+      <c r="N13" s="8">
         <v>6.96</v>
       </c>
-      <c r="N13" s="8">
+      <c r="O13" s="8">
         <v>12.01</v>
       </c>
-      <c r="O13" s="8">
+      <c r="P13" s="8">
         <v>8.0399999999999991</v>
       </c>
-      <c r="P13" s="8">
+      <c r="Q13" s="8">
         <v>6.79</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="R13" s="8">
         <v>7.42</v>
       </c>
-      <c r="R13" s="8">
+      <c r="S13" s="8">
         <v>8.6300000000000008</v>
       </c>
-      <c r="S13" s="8">
+      <c r="T13" s="8">
         <v>8.43</v>
       </c>
-      <c r="T13" s="8">
+      <c r="U13" s="8">
         <v>6.7</v>
       </c>
-      <c r="U13" s="8">
+      <c r="V13" s="8">
         <v>6.88</v>
       </c>
-      <c r="V13" s="8">
+      <c r="W13" s="8">
         <v>6.94</v>
       </c>
-      <c r="W13" s="8">
+      <c r="X13" s="8">
         <v>7.61</v>
       </c>
-      <c r="X13" s="8">
+      <c r="Y13" s="8">
         <v>6.09</v>
-      </c>
-      <c r="Y13" s="8">
-        <v>6.9</v>
       </c>
       <c r="Z13" s="8">
         <v>6.9</v>
       </c>
       <c r="AA13" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="AB13" s="8">
         <v>6.7</v>
       </c>
-      <c r="AB13" s="8">
+      <c r="AC13" s="8">
         <v>6.48</v>
       </c>
-      <c r="AC13" s="8">
+      <c r="AD13" s="8">
         <v>5.74</v>
-      </c>
-      <c r="AD13" s="8">
-        <v>7.43</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -1888,49 +1891,49 @@
         <v>12</v>
       </c>
       <c r="B14" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="C14" s="8">
         <v>0.94</v>
       </c>
-      <c r="C14" s="8">
+      <c r="D14" s="8">
         <v>1.0900000000000001</v>
       </c>
-      <c r="D14" s="8">
+      <c r="E14" s="8">
         <v>0.78</v>
       </c>
-      <c r="E14" s="8">
+      <c r="F14" s="8">
         <v>0.86</v>
       </c>
-      <c r="F14" s="8">
+      <c r="G14" s="8">
         <v>1.19</v>
       </c>
-      <c r="G14" s="8">
+      <c r="H14" s="8">
         <v>0.74</v>
       </c>
-      <c r="H14" s="8">
+      <c r="I14" s="8">
         <v>0.71</v>
       </c>
-      <c r="I14" s="8">
+      <c r="J14" s="8">
         <v>0.88</v>
       </c>
-      <c r="J14" s="8">
+      <c r="K14" s="8">
         <v>0.57999999999999996</v>
       </c>
-      <c r="K14" s="8">
+      <c r="L14" s="8">
         <v>0.49</v>
       </c>
-      <c r="L14" s="8">
+      <c r="M14" s="8">
         <v>0.44</v>
       </c>
-      <c r="M14" s="8">
+      <c r="N14" s="8">
         <v>0.7</v>
       </c>
-      <c r="N14" s="8">
+      <c r="O14" s="8">
         <v>0.38</v>
       </c>
-      <c r="O14" s="8">
+      <c r="P14" s="8">
         <v>0.48</v>
-      </c>
-      <c r="P14" s="8">
-        <v>0</v>
       </c>
       <c r="Q14" s="8">
         <v>0</v>
@@ -1980,91 +1983,91 @@
         <v>13</v>
       </c>
       <c r="B15" s="8">
+        <v>15.3</v>
+      </c>
+      <c r="C15" s="8">
         <v>-8.73</v>
       </c>
-      <c r="C15" s="8">
+      <c r="D15" s="8">
         <v>-6.62</v>
       </c>
-      <c r="D15" s="8">
+      <c r="E15" s="8">
         <v>18.95</v>
       </c>
-      <c r="E15" s="8">
+      <c r="F15" s="8">
         <v>26.33</v>
       </c>
-      <c r="F15" s="8">
+      <c r="G15" s="8">
         <v>3.14</v>
       </c>
-      <c r="G15" s="8">
+      <c r="H15" s="8">
         <v>39.03</v>
       </c>
-      <c r="H15" s="8">
+      <c r="I15" s="8">
         <v>32.840000000000003</v>
       </c>
-      <c r="I15" s="8">
+      <c r="J15" s="8">
         <v>-0.41</v>
       </c>
-      <c r="J15" s="8">
+      <c r="K15" s="8">
         <v>5.77</v>
       </c>
-      <c r="K15" s="8">
+      <c r="L15" s="8">
         <v>24.95</v>
       </c>
-      <c r="L15" s="8">
+      <c r="M15" s="8">
         <v>26.34</v>
       </c>
-      <c r="M15" s="8">
+      <c r="N15" s="8">
         <v>-5.98</v>
       </c>
-      <c r="N15" s="8">
+      <c r="O15" s="8">
         <v>2.19</v>
       </c>
-      <c r="O15" s="8">
+      <c r="P15" s="8">
         <v>0.65</v>
       </c>
-      <c r="P15" s="8">
+      <c r="Q15" s="8">
         <v>2.6</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="R15" s="8">
         <v>5.77</v>
       </c>
-      <c r="R15" s="8">
+      <c r="S15" s="8">
         <v>20.100000000000001</v>
       </c>
-      <c r="S15" s="8">
+      <c r="T15" s="8">
         <v>10.71</v>
       </c>
-      <c r="T15" s="8">
+      <c r="U15" s="8">
         <v>19.95</v>
       </c>
-      <c r="U15" s="8">
+      <c r="V15" s="8">
         <v>7.59</v>
       </c>
-      <c r="V15" s="8">
+      <c r="W15" s="8">
         <v>20.36</v>
       </c>
-      <c r="W15" s="8">
+      <c r="X15" s="8">
         <v>45.95</v>
       </c>
-      <c r="X15" s="8">
+      <c r="Y15" s="8">
         <v>1.46</v>
       </c>
-      <c r="Y15" s="8">
+      <c r="Z15" s="8">
         <v>10.48</v>
       </c>
-      <c r="Z15" s="8">
+      <c r="AA15" s="8">
         <v>-1.36</v>
       </c>
-      <c r="AA15" s="8">
+      <c r="AB15" s="8">
         <v>3.9</v>
       </c>
-      <c r="AB15" s="8">
+      <c r="AC15" s="8">
         <v>6.22</v>
       </c>
-      <c r="AC15" s="8">
+      <c r="AD15" s="8">
         <v>13.75</v>
-      </c>
-      <c r="AD15" s="8">
-        <v>-5.91</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -2072,91 +2075,91 @@
         <v>14</v>
       </c>
       <c r="B16" s="8">
+        <v>-54.03</v>
+      </c>
+      <c r="C16" s="8">
         <v>-44.2</v>
       </c>
-      <c r="C16" s="8">
+      <c r="D16" s="8">
         <v>10.79</v>
       </c>
-      <c r="D16" s="8">
+      <c r="E16" s="8">
         <v>-45.68</v>
       </c>
-      <c r="E16" s="8">
+      <c r="F16" s="8">
         <v>-77.319999999999993</v>
       </c>
-      <c r="F16" s="8">
+      <c r="G16" s="8">
         <v>-22.16</v>
       </c>
-      <c r="G16" s="8">
+      <c r="H16" s="8">
         <v>33.39</v>
       </c>
-      <c r="H16" s="8">
+      <c r="I16" s="8">
         <v>-14.74</v>
       </c>
-      <c r="I16" s="8">
+      <c r="J16" s="8">
         <v>35.53</v>
       </c>
-      <c r="J16" s="8">
+      <c r="K16" s="8">
         <v>-19.03</v>
       </c>
-      <c r="K16" s="8">
+      <c r="L16" s="8">
         <v>30.65</v>
       </c>
-      <c r="L16" s="8">
+      <c r="M16" s="8">
         <v>-6.44</v>
       </c>
-      <c r="M16" s="8">
+      <c r="N16" s="8">
         <v>34.909999999999997</v>
       </c>
-      <c r="N16" s="8">
+      <c r="O16" s="8">
         <v>-18.66</v>
       </c>
-      <c r="O16" s="8">
+      <c r="P16" s="8">
         <v>61.82</v>
       </c>
-      <c r="P16" s="8">
+      <c r="Q16" s="8">
         <v>15.94</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="R16" s="8">
         <v>21.71</v>
       </c>
-      <c r="R16" s="8">
+      <c r="S16" s="8">
         <v>-29.54</v>
       </c>
-      <c r="S16" s="8">
+      <c r="T16" s="8">
         <v>38.81</v>
       </c>
-      <c r="T16" s="8">
+      <c r="U16" s="8">
         <v>-4.72</v>
       </c>
-      <c r="U16" s="8">
+      <c r="V16" s="8">
         <v>35.46</v>
       </c>
-      <c r="V16" s="8">
+      <c r="W16" s="8">
         <v>-26.35</v>
       </c>
-      <c r="W16" s="8">
+      <c r="X16" s="8">
         <v>13.12</v>
       </c>
-      <c r="X16" s="8">
+      <c r="Y16" s="8">
         <v>14.74</v>
       </c>
-      <c r="Y16" s="8">
+      <c r="Z16" s="8">
         <v>25.26</v>
       </c>
-      <c r="Z16" s="8">
+      <c r="AA16" s="8">
         <v>-3.67</v>
       </c>
-      <c r="AA16" s="8">
+      <c r="AB16" s="8">
         <v>29.31</v>
       </c>
-      <c r="AB16" s="8">
+      <c r="AC16" s="8">
         <v>-16.760000000000002</v>
       </c>
-      <c r="AC16" s="8">
+      <c r="AD16" s="8">
         <v>-4.83</v>
-      </c>
-      <c r="AD16" s="8">
-        <v>-15.13</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -3179,91 +3182,91 @@
         <v>25</v>
       </c>
       <c r="B31" s="8">
+        <v>-22.08</v>
+      </c>
+      <c r="C31" s="8">
         <v>-1.2</v>
       </c>
-      <c r="C31" s="8">
+      <c r="D31" s="8">
         <v>19.579999999999998</v>
       </c>
-      <c r="D31" s="8">
+      <c r="E31" s="8">
         <v>-13.81</v>
       </c>
-      <c r="E31" s="8">
+      <c r="F31" s="8">
         <v>-27.99</v>
       </c>
-      <c r="F31" s="8">
+      <c r="G31" s="8">
         <v>15.36</v>
       </c>
-      <c r="G31" s="8">
+      <c r="H31" s="8">
         <v>86.24</v>
       </c>
-      <c r="H31" s="8">
+      <c r="I31" s="8">
         <v>29.33</v>
       </c>
-      <c r="I31" s="8">
+      <c r="J31" s="8">
         <v>55.61</v>
       </c>
-      <c r="J31" s="8">
+      <c r="K31" s="8">
         <v>2.59</v>
       </c>
-      <c r="K31" s="8">
+      <c r="L31" s="8">
         <v>73.099999999999994</v>
       </c>
-      <c r="L31" s="8">
+      <c r="M31" s="8">
         <v>25.08</v>
       </c>
-      <c r="M31" s="8">
+      <c r="N31" s="8">
         <v>49.33</v>
       </c>
-      <c r="N31" s="8">
+      <c r="O31" s="8">
         <v>7.1</v>
       </c>
-      <c r="O31" s="8">
+      <c r="P31" s="8">
         <v>77.47</v>
       </c>
-      <c r="P31" s="8">
+      <c r="Q31" s="8">
         <v>27.76</v>
       </c>
-      <c r="Q31" s="8">
+      <c r="R31" s="8">
         <v>45.69</v>
       </c>
-      <c r="R31" s="8">
+      <c r="S31" s="8">
         <v>14.99</v>
       </c>
-      <c r="S31" s="8">
+      <c r="T31" s="8">
         <v>71.23</v>
       </c>
-      <c r="T31" s="8">
+      <c r="U31" s="8">
         <v>36.33</v>
       </c>
-      <c r="U31" s="8">
+      <c r="V31" s="8">
         <v>61.8</v>
       </c>
-      <c r="V31" s="8">
+      <c r="W31" s="8">
         <v>22.71</v>
       </c>
-      <c r="W31" s="8">
+      <c r="X31" s="8">
         <v>81.03</v>
       </c>
-      <c r="X31" s="8">
+      <c r="Y31" s="8">
         <v>37.47</v>
       </c>
-      <c r="Y31" s="8">
+      <c r="Z31" s="8">
         <v>60.17</v>
       </c>
-      <c r="Z31" s="8">
+      <c r="AA31" s="8">
         <v>24.95</v>
       </c>
-      <c r="AA31" s="8">
+      <c r="AB31" s="8">
         <v>59.01</v>
       </c>
-      <c r="AB31" s="8">
+      <c r="AC31" s="8">
         <v>14.93</v>
       </c>
-      <c r="AC31" s="8">
+      <c r="AD31" s="8">
         <v>32.729999999999997</v>
-      </c>
-      <c r="AD31" s="8">
-        <v>12.55</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
@@ -3271,91 +3274,91 @@
         <v>26</v>
       </c>
       <c r="B32" s="8">
+        <v>-37.79</v>
+      </c>
+      <c r="C32" s="8">
         <v>-18.510000000000002</v>
       </c>
-      <c r="C32" s="8">
+      <c r="D32" s="8">
         <v>96.69</v>
       </c>
-      <c r="D32" s="8">
+      <c r="E32" s="8">
         <v>23.42</v>
       </c>
-      <c r="E32" s="8">
+      <c r="F32" s="8">
         <v>-93.24</v>
       </c>
-      <c r="F32" s="8">
+      <c r="G32" s="8">
         <v>102.98</v>
       </c>
-      <c r="G32" s="8">
+      <c r="H32" s="8">
         <v>98.27</v>
       </c>
-      <c r="H32" s="8">
+      <c r="I32" s="8">
         <v>29.97</v>
       </c>
-      <c r="I32" s="8">
+      <c r="J32" s="8">
         <v>1.92</v>
       </c>
-      <c r="J32" s="8">
+      <c r="K32" s="8">
         <v>-77.06</v>
       </c>
-      <c r="K32" s="8">
+      <c r="L32" s="8">
         <v>43.95</v>
       </c>
-      <c r="L32" s="8">
+      <c r="M32" s="8">
         <v>-9.27</v>
       </c>
-      <c r="M32" s="8">
+      <c r="N32" s="8">
         <v>33.4</v>
       </c>
-      <c r="N32" s="8">
+      <c r="O32" s="8">
         <v>9</v>
       </c>
-      <c r="O32" s="8">
+      <c r="P32" s="8">
         <v>67.64</v>
       </c>
-      <c r="P32" s="8">
+      <c r="Q32" s="8">
         <v>35.17</v>
       </c>
-      <c r="Q32" s="8">
+      <c r="R32" s="8">
         <v>22.99</v>
       </c>
-      <c r="R32" s="8">
+      <c r="S32" s="8">
         <v>-33.67</v>
       </c>
-      <c r="S32" s="8">
+      <c r="T32" s="8">
         <v>62.61</v>
       </c>
-      <c r="T32" s="8">
+      <c r="U32" s="8">
         <v>53.2</v>
       </c>
-      <c r="U32" s="8">
+      <c r="V32" s="8">
         <v>23.13</v>
       </c>
-      <c r="V32" s="8">
+      <c r="W32" s="8">
         <v>28.92</v>
       </c>
-      <c r="W32" s="8">
+      <c r="X32" s="8">
         <v>72.34</v>
       </c>
-      <c r="X32" s="8">
+      <c r="Y32" s="8">
         <v>55.12</v>
       </c>
-      <c r="Y32" s="8">
+      <c r="Z32" s="8">
         <v>15.18</v>
       </c>
-      <c r="Z32" s="8">
+      <c r="AA32" s="8">
         <v>28.3</v>
       </c>
-      <c r="AA32" s="8">
+      <c r="AB32" s="8">
         <v>81.2</v>
       </c>
-      <c r="AB32" s="8">
+      <c r="AC32" s="8">
         <v>-4.68</v>
       </c>
-      <c r="AC32" s="8">
+      <c r="AD32" s="8">
         <v>-19.87</v>
-      </c>
-      <c r="AD32" s="8">
-        <v>-12.32</v>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
@@ -3376,91 +3379,91 @@
         <v>29</v>
       </c>
       <c r="B36" s="10">
+        <v>-0.26</v>
+      </c>
+      <c r="C36" s="10">
         <v>-0.22</v>
       </c>
-      <c r="C36" s="10">
+      <c r="D36" s="10">
         <v>0.09</v>
       </c>
-      <c r="D36" s="10">
+      <c r="E36" s="10">
         <v>-0.21</v>
       </c>
-      <c r="E36" s="10">
+      <c r="F36" s="10">
         <v>-0.43</v>
       </c>
-      <c r="F36" s="10">
+      <c r="G36" s="10">
         <v>-0.11</v>
       </c>
-      <c r="G36" s="10">
+      <c r="H36" s="10">
         <v>0.19</v>
       </c>
-      <c r="H36" s="10">
+      <c r="I36" s="10">
         <v>-0.08</v>
       </c>
-      <c r="I36" s="10">
+      <c r="J36" s="10">
         <v>0.22</v>
       </c>
-      <c r="J36" s="10">
+      <c r="K36" s="10">
         <v>-0.12</v>
       </c>
-      <c r="K36" s="10">
+      <c r="L36" s="10">
         <v>0.19</v>
       </c>
-      <c r="L36" s="10">
+      <c r="M36" s="10">
         <v>-0.04</v>
       </c>
-      <c r="M36" s="10">
+      <c r="N36" s="10">
         <v>0.25</v>
       </c>
-      <c r="N36" s="10">
+      <c r="O36" s="10">
         <v>-0.11</v>
       </c>
-      <c r="O36" s="10">
+      <c r="P36" s="10">
         <v>0.43</v>
       </c>
-      <c r="P36" s="10">
+      <c r="Q36" s="10">
         <v>0.12</v>
       </c>
-      <c r="Q36" s="10">
+      <c r="R36" s="10">
         <v>0.16</v>
       </c>
-      <c r="R36" s="10">
+      <c r="S36" s="10">
         <v>-0.15</v>
       </c>
-      <c r="S36" s="10">
+      <c r="T36" s="10">
         <v>0.34</v>
       </c>
-      <c r="T36" s="10">
+      <c r="U36" s="10">
         <v>0.05</v>
       </c>
-      <c r="U36" s="10">
+      <c r="V36" s="10">
         <v>0.27</v>
       </c>
-      <c r="V36" s="10">
+      <c r="W36" s="10">
         <v>-0.08</v>
       </c>
-      <c r="W36" s="10">
+      <c r="X36" s="10">
         <v>0.13</v>
       </c>
-      <c r="X36" s="10">
+      <c r="Y36" s="10">
         <v>0.16</v>
       </c>
-      <c r="Y36" s="10">
+      <c r="Z36" s="10">
         <v>0.19</v>
       </c>
-      <c r="Z36" s="10">
+      <c r="AA36" s="10">
         <v>0.05</v>
       </c>
-      <c r="AA36" s="10">
+      <c r="AB36" s="10">
         <v>0.23</v>
       </c>
-      <c r="AB36" s="10">
+      <c r="AC36" s="10">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="AC36" s="10">
+      <c r="AD36" s="10">
         <v>-0.03</v>
-      </c>
-      <c r="AD36" s="10">
-        <v>-0.06</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
@@ -3468,88 +3471,88 @@
         <v>30</v>
       </c>
       <c r="B37" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="C37" s="10">
         <v>0.41</v>
       </c>
-      <c r="C37" s="10">
+      <c r="D37" s="10">
         <v>0.34</v>
       </c>
-      <c r="D37" s="10">
+      <c r="E37" s="10">
         <v>0.33</v>
       </c>
-      <c r="E37" s="10">
+      <c r="F37" s="10">
         <v>0.17</v>
       </c>
-      <c r="F37" s="10">
+      <c r="G37" s="10">
         <v>0.18</v>
       </c>
-      <c r="G37" s="10">
+      <c r="H37" s="10">
         <v>0.19</v>
       </c>
-      <c r="H37" s="10">
+      <c r="I37" s="10">
         <v>0.2</v>
       </c>
-      <c r="I37" s="10">
+      <c r="J37" s="10">
         <v>0.24</v>
       </c>
-      <c r="J37" s="10">
+      <c r="K37" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K37" s="10">
+      <c r="L37" s="10">
         <v>0.37</v>
       </c>
-      <c r="L37" s="10">
+      <c r="M37" s="10">
         <v>0.24</v>
       </c>
-      <c r="M37" s="10">
+      <c r="N37" s="10">
         <v>0.25</v>
       </c>
-      <c r="N37" s="10">
+      <c r="O37" s="10">
         <v>0.26</v>
       </c>
-      <c r="O37" s="10">
+      <c r="P37" s="10">
         <v>0.3</v>
       </c>
-      <c r="P37" s="10">
+      <c r="Q37" s="10">
         <v>0.24</v>
       </c>
-      <c r="Q37" s="10">
+      <c r="R37" s="10">
         <v>0.22</v>
       </c>
-      <c r="R37" s="10">
+      <c r="S37" s="10">
         <v>0.2</v>
       </c>
-      <c r="S37" s="10">
+      <c r="T37" s="10">
         <v>0.22</v>
       </c>
-      <c r="T37" s="10">
+      <c r="U37" s="10">
         <v>0.24</v>
       </c>
-      <c r="U37" s="10">
+      <c r="V37" s="10">
         <v>0.2</v>
       </c>
-      <c r="V37" s="10">
+      <c r="W37" s="10">
         <v>0.22</v>
       </c>
-      <c r="W37" s="10">
+      <c r="X37" s="10">
         <v>0.32</v>
       </c>
-      <c r="X37" s="10">
+      <c r="Y37" s="10">
         <v>0.39</v>
       </c>
-      <c r="Y37" s="10">
+      <c r="Z37" s="10">
         <v>0.48</v>
       </c>
-      <c r="Z37" s="10">
+      <c r="AA37" s="10">
         <v>0.51</v>
       </c>
-      <c r="AA37" s="10">
+      <c r="AB37" s="10">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AB37" s="10">
+      <c r="AC37" s="10">
         <v>0.5</v>
-      </c>
-      <c r="AC37" s="10">
-        <v>0.42</v>
       </c>
       <c r="AD37" s="10">
         <v>0.42</v>
@@ -3560,88 +3563,88 @@
         <v>31</v>
       </c>
       <c r="B38" s="10">
+        <v>0.31</v>
+      </c>
+      <c r="C38" s="10">
         <v>0.32</v>
       </c>
-      <c r="C38" s="10">
+      <c r="D38" s="10">
         <v>0.25</v>
       </c>
-      <c r="D38" s="10">
+      <c r="E38" s="10">
         <v>0.24</v>
-      </c>
-      <c r="E38" s="10">
-        <v>0.08</v>
       </c>
       <c r="F38" s="10">
         <v>0.08</v>
       </c>
       <c r="G38" s="10">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H38" s="10">
         <v>0.09</v>
       </c>
       <c r="I38" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="J38" s="10">
         <v>0.13</v>
       </c>
-      <c r="J38" s="10">
+      <c r="K38" s="10">
         <v>0.16</v>
       </c>
-      <c r="K38" s="10">
+      <c r="L38" s="10">
         <v>0.25</v>
       </c>
-      <c r="L38" s="10">
+      <c r="M38" s="10">
         <v>0.13</v>
-      </c>
-      <c r="M38" s="10">
-        <v>0.16</v>
       </c>
       <c r="N38" s="10">
         <v>0.16</v>
       </c>
       <c r="O38" s="10">
+        <v>0.16</v>
+      </c>
+      <c r="P38" s="10">
         <v>0.2</v>
       </c>
-      <c r="P38" s="10">
+      <c r="Q38" s="10">
         <v>0.15</v>
-      </c>
-      <c r="Q38" s="10">
-        <v>0.14000000000000001</v>
       </c>
       <c r="R38" s="10">
         <v>0.14000000000000001</v>
       </c>
       <c r="S38" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T38" s="10">
         <v>0.15</v>
       </c>
-      <c r="T38" s="10">
+      <c r="U38" s="10">
         <v>0.17</v>
       </c>
-      <c r="U38" s="10">
+      <c r="V38" s="10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="V38" s="10">
+      <c r="W38" s="10">
         <v>0.15</v>
       </c>
-      <c r="W38" s="10">
+      <c r="X38" s="10">
         <v>0.24</v>
       </c>
-      <c r="X38" s="10">
+      <c r="Y38" s="10">
         <v>0.31</v>
       </c>
-      <c r="Y38" s="10">
+      <c r="Z38" s="10">
         <v>0.4</v>
       </c>
-      <c r="Z38" s="10">
+      <c r="AA38" s="10">
         <v>0.43</v>
       </c>
-      <c r="AA38" s="10">
+      <c r="AB38" s="10">
         <v>0.46</v>
       </c>
-      <c r="AB38" s="10">
+      <c r="AC38" s="10">
         <v>0.41</v>
-      </c>
-      <c r="AC38" s="10">
-        <v>0.34</v>
       </c>
       <c r="AD38" s="10">
         <v>0.34</v>
@@ -3652,91 +3655,91 @@
         <v>32</v>
       </c>
       <c r="B39" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="C39" s="14">
         <v>0.73980000000000001</v>
       </c>
-      <c r="C39" s="14">
+      <c r="D39" s="14">
         <v>0.73370000000000002</v>
       </c>
-      <c r="D39" s="14">
+      <c r="E39" s="14">
         <v>0.73980000000000001</v>
       </c>
-      <c r="E39" s="14">
+      <c r="F39" s="14">
         <v>0.76429999999999998</v>
       </c>
-      <c r="F39" s="14">
+      <c r="G39" s="14">
         <v>0.74870000000000003</v>
       </c>
-      <c r="G39" s="14">
+      <c r="H39" s="14">
         <v>0.7389</v>
       </c>
-      <c r="H39" s="14">
+      <c r="I39" s="14">
         <v>0.74750000000000005</v>
       </c>
-      <c r="I39" s="14">
+      <c r="J39" s="14">
         <v>0.73909999999999998</v>
       </c>
-      <c r="J39" s="14">
+      <c r="K39" s="14">
         <v>0.68300000000000005</v>
       </c>
-      <c r="K39" s="14">
+      <c r="L39" s="14">
         <v>0.68020000000000003</v>
       </c>
-      <c r="L39" s="14">
+      <c r="M39" s="14">
         <v>0.71840000000000004</v>
       </c>
-      <c r="M39" s="14">
+      <c r="N39" s="14">
         <v>0.70079999999999998</v>
       </c>
-      <c r="N39" s="14">
+      <c r="O39" s="14">
         <v>0.71530000000000005</v>
       </c>
-      <c r="O39" s="14">
+      <c r="P39" s="14">
         <v>0.69950000000000001</v>
       </c>
-      <c r="P39" s="14">
+      <c r="Q39" s="14">
         <v>0.71879999999999999</v>
       </c>
-      <c r="Q39" s="14">
+      <c r="R39" s="14">
         <v>0.71970000000000001</v>
       </c>
-      <c r="R39" s="14">
+      <c r="S39" s="14">
         <v>0.72709999999999997</v>
       </c>
-      <c r="S39" s="14">
+      <c r="T39" s="14">
         <v>0.70799999999999996</v>
       </c>
-      <c r="T39" s="14">
+      <c r="U39" s="14">
         <v>0.72570000000000001</v>
       </c>
-      <c r="U39" s="14">
+      <c r="V39" s="14">
         <v>0.71779999999999999</v>
       </c>
-      <c r="V39" s="14">
+      <c r="W39" s="14">
         <v>0.73380000000000001</v>
       </c>
-      <c r="W39" s="14">
+      <c r="X39" s="14">
         <v>0.7228</v>
       </c>
-      <c r="X39" s="14">
+      <c r="Y39" s="14">
         <v>0.73899999999999999</v>
       </c>
-      <c r="Y39" s="14">
+      <c r="Z39" s="14">
         <v>0.74729999999999996</v>
       </c>
-      <c r="Z39" s="14">
+      <c r="AA39" s="14">
         <v>0.76659999999999995</v>
       </c>
-      <c r="AA39" s="14">
+      <c r="AB39" s="14">
         <v>0.76329999999999998</v>
       </c>
-      <c r="AB39" s="14">
+      <c r="AC39" s="14">
         <v>0.76910000000000001</v>
       </c>
-      <c r="AC39" s="14">
+      <c r="AD39" s="14">
         <v>0.75039999999999996</v>
-      </c>
-      <c r="AD39" s="14">
-        <v>0.74439999999999995</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
@@ -3744,10 +3747,10 @@
         <v>33</v>
       </c>
       <c r="B40" s="14">
-        <v>-1.6129279548625489E-2</v>
+        <v>-2.2117964521717798E-2</v>
       </c>
       <c r="C40" s="14">
-        <v>1.0070243864260416E-2</v>
+        <v>8.2701225517371815E-3</v>
       </c>
       <c r="D40" s="10" t="e">
         <v>#N/A</v>
@@ -3836,91 +3839,91 @@
         <v>34</v>
       </c>
       <c r="B41" s="14">
+        <v>-5.9499999999999997E-2</v>
+      </c>
+      <c r="C41" s="14">
         <v>-4.5699999999999998E-2</v>
       </c>
-      <c r="C41" s="14">
+      <c r="D41" s="14">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="D41" s="14">
+      <c r="E41" s="14">
         <v>-4.0399999999999998E-2</v>
       </c>
-      <c r="E41" s="14">
+      <c r="F41" s="14">
         <v>-8.6099999999999996E-2</v>
       </c>
-      <c r="F41" s="14">
+      <c r="G41" s="14">
         <v>-2.0400000000000001E-2</v>
       </c>
-      <c r="G41" s="14">
+      <c r="H41" s="14">
         <v>3.5700000000000003E-2</v>
       </c>
-      <c r="H41" s="14">
+      <c r="I41" s="14">
         <v>-1.41E-2</v>
       </c>
-      <c r="I41" s="14">
+      <c r="J41" s="14">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="J41" s="14">
+      <c r="K41" s="14">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="K41" s="14">
+      <c r="L41" s="14">
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="L41" s="14">
+      <c r="M41" s="14">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="M41" s="14">
+      <c r="N41" s="14">
         <v>4.9700000000000001E-2</v>
       </c>
-      <c r="N41" s="14">
+      <c r="O41" s="14">
         <v>-2.2499999999999999E-2</v>
       </c>
-      <c r="O41" s="14">
+      <c r="P41" s="14">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="P41" s="14">
+      <c r="Q41" s="14">
         <v>2.6700000000000002E-2</v>
       </c>
-      <c r="Q41" s="14">
+      <c r="R41" s="14">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="R41" s="14">
+      <c r="S41" s="14">
         <v>-3.0599999999999999E-2</v>
       </c>
-      <c r="S41" s="14">
+      <c r="T41" s="14">
         <v>7.6300000000000007E-2</v>
       </c>
-      <c r="T41" s="14">
+      <c r="U41" s="14">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="U41" s="14">
+      <c r="V41" s="14">
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="V41" s="14">
+      <c r="W41" s="14">
         <v>-0.02</v>
       </c>
-      <c r="W41" s="14">
+      <c r="X41" s="14">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="X41" s="14">
+      <c r="Y41" s="14">
         <v>4.1300000000000003E-2</v>
       </c>
-      <c r="Y41" s="14">
+      <c r="Z41" s="14">
         <v>5.21E-2</v>
       </c>
-      <c r="Z41" s="14">
+      <c r="AA41" s="14">
         <v>1.46E-2</v>
       </c>
-      <c r="AA41" s="14">
+      <c r="AB41" s="14">
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="AB41" s="14">
+      <c r="AC41" s="14">
         <v>-2.1299999999999999E-2</v>
       </c>
-      <c r="AC41" s="14">
+      <c r="AD41" s="14">
         <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="AD41" s="14">
-        <v>-1.6199999999999999E-2</v>
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
@@ -3928,91 +3931,91 @@
         <v>35</v>
       </c>
       <c r="B42" s="14">
+        <v>-0.10390000000000001</v>
+      </c>
+      <c r="C42" s="14">
         <v>-4.4000000000000003E-3</v>
       </c>
-      <c r="C42" s="14">
+      <c r="D42" s="14">
         <v>7.4200000000000002E-2</v>
       </c>
-      <c r="D42" s="14">
+      <c r="E42" s="14">
         <v>-7.7499999999999999E-2</v>
       </c>
-      <c r="E42" s="14">
+      <c r="F42" s="14">
         <v>-0.13239999999999999</v>
       </c>
-      <c r="F42" s="14">
+      <c r="G42" s="14">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="G42" s="14">
+      <c r="H42" s="14">
         <v>0.19719999999999999</v>
       </c>
-      <c r="H42" s="14">
+      <c r="I42" s="14">
         <v>8.3099999999999993E-2</v>
       </c>
-      <c r="I42" s="14">
+      <c r="J42" s="14">
         <v>0.14779999999999999</v>
       </c>
-      <c r="J42" s="14">
+      <c r="K42" s="14">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="K42" s="14">
+      <c r="L42" s="14">
         <v>0.1769</v>
       </c>
-      <c r="L42" s="14">
+      <c r="M42" s="14">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="M42" s="14">
+      <c r="N42" s="14">
         <v>0.1447</v>
       </c>
-      <c r="N42" s="14">
+      <c r="O42" s="14">
         <v>2.3099999999999999E-2</v>
       </c>
-      <c r="O42" s="14">
+      <c r="P42" s="14">
         <v>0.21609999999999999</v>
       </c>
-      <c r="P42" s="14">
+      <c r="Q42" s="14">
         <v>9.4600000000000004E-2</v>
       </c>
-      <c r="Q42" s="14">
+      <c r="R42" s="14">
         <v>0.14749999999999999</v>
       </c>
-      <c r="R42" s="14">
+      <c r="S42" s="14">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="S42" s="14">
+      <c r="T42" s="14">
         <v>0.21870000000000001</v>
       </c>
-      <c r="T42" s="14">
+      <c r="U42" s="14">
         <v>0.1389</v>
       </c>
-      <c r="U42" s="14">
+      <c r="V42" s="14">
         <v>0.2203</v>
       </c>
-      <c r="V42" s="14">
+      <c r="W42" s="14">
         <v>8.6499999999999994E-2</v>
       </c>
-      <c r="W42" s="14">
+      <c r="X42" s="14">
         <v>0.25190000000000001</v>
       </c>
-      <c r="X42" s="14">
+      <c r="Y42" s="14">
         <v>0.14630000000000001</v>
       </c>
-      <c r="Y42" s="14">
+      <c r="Z42" s="14">
         <v>0.21709999999999999</v>
       </c>
-      <c r="Z42" s="14">
+      <c r="AA42" s="14">
         <v>9.4200000000000006E-2</v>
       </c>
-      <c r="AA42" s="14">
+      <c r="AB42" s="14">
         <v>0.1867</v>
       </c>
-      <c r="AB42" s="14">
+      <c r="AC42" s="14">
         <v>6.1499999999999999E-2</v>
       </c>
-      <c r="AC42" s="14">
+      <c r="AD42" s="14">
         <v>0.12609999999999999</v>
-      </c>
-      <c r="AD42" s="14">
-        <v>5.2900000000000003E-2</v>
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
@@ -4020,91 +4023,91 @@
         <v>36</v>
       </c>
       <c r="B43" s="14">
+        <v>-0.25422293323295536</v>
+      </c>
+      <c r="C43" s="14">
         <v>-0.16243430965418398</v>
       </c>
-      <c r="C43" s="14">
+      <c r="D43" s="14">
         <v>4.0892897748806181E-2</v>
       </c>
-      <c r="D43" s="14">
+      <c r="E43" s="14">
         <v>-0.25629804185602872</v>
       </c>
-      <c r="E43" s="14">
+      <c r="F43" s="14">
         <v>-0.36573482805922142</v>
       </c>
-      <c r="F43" s="14">
+      <c r="G43" s="14">
         <v>-5.8846960724433704E-2</v>
       </c>
-      <c r="G43" s="14">
+      <c r="H43" s="14">
         <v>7.6361889951058873E-2</v>
       </c>
-      <c r="H43" s="14">
+      <c r="I43" s="14">
         <v>-4.1749277743159806E-2</v>
       </c>
-      <c r="I43" s="14">
+      <c r="J43" s="14">
         <v>9.4411819413812353E-2</v>
       </c>
-      <c r="J43" s="14">
+      <c r="K43" s="14">
         <v>-5.4787815972822028E-2</v>
       </c>
-      <c r="K43" s="14">
+      <c r="L43" s="14">
         <v>7.4152029805970868E-2</v>
       </c>
-      <c r="L43" s="14">
+      <c r="M43" s="14">
         <v>-1.9250313863812998E-2</v>
       </c>
-      <c r="M43" s="14">
+      <c r="N43" s="14">
         <v>0.1023723644467904</v>
       </c>
-      <c r="N43" s="14">
+      <c r="O43" s="14">
         <v>-5.9510141599693839E-2</v>
       </c>
-      <c r="O43" s="14">
+      <c r="P43" s="14">
         <v>0.17265745007680491</v>
       </c>
-      <c r="P43" s="14">
+      <c r="Q43" s="14">
         <v>5.4300800545051944E-2</v>
       </c>
-      <c r="Q43" s="14">
+      <c r="R43" s="14">
         <v>7.0093307073903072E-2</v>
       </c>
-      <c r="R43" s="14">
+      <c r="S43" s="14">
         <v>-0.10493410536037796</v>
       </c>
-      <c r="S43" s="14">
+      <c r="T43" s="14">
         <v>0.11914410265856205</v>
       </c>
-      <c r="T43" s="14">
+      <c r="U43" s="14">
         <v>-1.8103712795335989E-2</v>
       </c>
-      <c r="U43" s="14">
+      <c r="V43" s="14">
         <v>0.1266157252017425</v>
       </c>
-      <c r="V43" s="14">
+      <c r="W43" s="14">
         <v>-0.10076867184213546</v>
       </c>
-      <c r="W43" s="14">
+      <c r="X43" s="14">
         <v>4.0969273045216081E-2</v>
       </c>
-      <c r="X43" s="14">
+      <c r="Y43" s="14">
         <v>5.7557889804365658E-2</v>
       </c>
-      <c r="Y43" s="14">
+      <c r="Z43" s="14">
         <v>9.1132116314308398E-2</v>
       </c>
-      <c r="Z43" s="14">
+      <c r="AA43" s="14">
         <v>-1.3856376953862416E-2</v>
       </c>
-      <c r="AA43" s="14">
+      <c r="AB43" s="14">
         <v>9.2709157045706161E-2</v>
       </c>
-      <c r="AB43" s="14">
+      <c r="AC43" s="14">
         <v>-6.9082065867029391E-2</v>
       </c>
-      <c r="AC43" s="14">
+      <c r="AD43" s="14">
         <v>-1.8611999537590074E-2</v>
-      </c>
-      <c r="AD43" s="14">
-        <v>-6.3823504597992076E-2</v>
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
@@ -4112,91 +4115,91 @@
         <v>37</v>
       </c>
       <c r="B44" s="14">
+        <v>-0.19359999999999999</v>
+      </c>
+      <c r="C44" s="14">
         <v>-0.12770000000000001</v>
       </c>
-      <c r="C44" s="14">
+      <c r="D44" s="14">
         <v>-0.1308</v>
       </c>
-      <c r="D44" s="14">
+      <c r="E44" s="14">
         <v>-0.2432</v>
       </c>
-      <c r="E44" s="14">
+      <c r="F44" s="14">
         <v>-0.2843</v>
       </c>
-      <c r="F44" s="14">
+      <c r="G44" s="14">
         <v>2.01E-2</v>
       </c>
-      <c r="G44" s="14">
+      <c r="H44" s="14">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="H44" s="14">
+      <c r="I44" s="14">
         <v>2.35E-2</v>
       </c>
-      <c r="I44" s="14">
+      <c r="J44" s="14">
         <v>7.6600000000000001E-2</v>
       </c>
-      <c r="J44" s="14">
+      <c r="K44" s="14">
         <v>2.41E-2</v>
       </c>
-      <c r="K44" s="14">
+      <c r="L44" s="14">
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="L44" s="14">
+      <c r="M44" s="14">
         <v>3.56E-2</v>
       </c>
-      <c r="M44" s="14">
+      <c r="N44" s="14">
         <v>8.3900000000000002E-2</v>
       </c>
-      <c r="N44" s="14">
+      <c r="O44" s="14">
         <v>5.3600000000000002E-2</v>
       </c>
-      <c r="O44" s="14">
+      <c r="P44" s="14">
         <v>8.5400000000000004E-2</v>
       </c>
-      <c r="P44" s="14">
+      <c r="Q44" s="14">
         <v>5.3100000000000001E-2</v>
       </c>
-      <c r="Q44" s="14">
+      <c r="R44" s="14">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="R44" s="14">
+      <c r="S44" s="14">
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="S44" s="14">
+      <c r="T44" s="14">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="T44" s="14">
+      <c r="U44" s="14">
         <v>6.7900000000000002E-2</v>
       </c>
-      <c r="U44" s="14">
+      <c r="V44" s="14">
         <v>0.1081</v>
       </c>
-      <c r="V44" s="14">
+      <c r="W44" s="14">
         <v>4.4699999999999997E-2</v>
       </c>
-      <c r="W44" s="14">
+      <c r="X44" s="14">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="X44" s="14">
+      <c r="Y44" s="14">
         <v>7.6799999999999993E-2</v>
       </c>
-      <c r="Y44" s="14">
+      <c r="Z44" s="14">
         <v>7.9899999999999999E-2</v>
-      </c>
-      <c r="Z44" s="14">
-        <v>2.23E-2</v>
       </c>
       <c r="AA44" s="14">
         <v>2.23E-2</v>
       </c>
       <c r="AB44" s="14">
+        <v>2.23E-2</v>
+      </c>
+      <c r="AC44" s="14">
         <v>-1.5299999999999999E-2</v>
       </c>
-      <c r="AC44" s="14">
+      <c r="AD44" s="14">
         <v>-6.6E-3</v>
-      </c>
-      <c r="AD44" s="14">
-        <v>2.7E-2</v>
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
@@ -4204,43 +4207,43 @@
         <v>38</v>
       </c>
       <c r="B45" s="14">
-        <v>5.3009479415976009E-2</v>
+        <v>-5.3302118497925398E-4</v>
       </c>
       <c r="C45" s="14">
-        <v>8.8197717038433349E-2</v>
+        <v>5.3115509477432189E-2</v>
       </c>
       <c r="D45" s="14">
-        <v>4.5323646444489586E-2</v>
+        <v>0.10063689700909341</v>
       </c>
       <c r="E45" s="14">
-        <v>-0.11840119579746181</v>
+        <v>5.4515141497908794E-2</v>
       </c>
       <c r="F45" s="14">
-        <v>0.19644092494737928</v>
+        <v>-0.12125583243792225</v>
       </c>
       <c r="G45" s="14">
-        <v>0.17223917022574739</v>
+        <v>0.20356924954240391</v>
       </c>
       <c r="H45" s="14">
-        <v>0.15525274562733424</v>
+        <v>0.20877861184040233</v>
       </c>
       <c r="I45" s="14">
-        <v>0.10336699652530836</v>
+        <v>0.1706256476947148</v>
       </c>
       <c r="J45" s="14">
-        <v>6.4189119862100102E-2</v>
+        <v>0.10438940304939361</v>
       </c>
       <c r="K45" s="14">
-        <v>0.16236840895508667</v>
+        <v>7.1898128993702015E-2</v>
       </c>
       <c r="L45" s="14">
-        <v>0.15335995723404927</v>
+        <v>0.22213137951636741</v>
       </c>
       <c r="M45" s="14">
-        <v>0.11952781747922291</v>
+        <v>0.12908263194113601</v>
       </c>
       <c r="N45" s="14">
-        <v>0.10368468228397004</v>
+        <v>0.10940187504542259</v>
       </c>
       <c r="O45" s="14" t="e">
         <v>#REF!</v>
@@ -4296,91 +4299,91 @@
         <v>39</v>
       </c>
       <c r="B46" s="14">
+        <v>5.3E-3</v>
+      </c>
+      <c r="C46" s="14">
         <v>-0.27739999999999998</v>
       </c>
-      <c r="C46" s="14">
+      <c r="D46" s="14">
         <v>-0.39660000000000001</v>
       </c>
-      <c r="D46" s="14">
+      <c r="E46" s="14">
         <v>-0.49519999999999997</v>
       </c>
-      <c r="E46" s="14">
+      <c r="F46" s="14">
         <v>-0.43819999999999998</v>
       </c>
-      <c r="F46" s="14">
+      <c r="G46" s="14">
         <v>8.4199999999999997E-2</v>
       </c>
-      <c r="G46" s="14">
+      <c r="H46" s="14">
         <v>5.79E-2</v>
       </c>
-      <c r="H46" s="14">
+      <c r="I46" s="14">
         <v>5.5399999999999998E-2</v>
       </c>
-      <c r="I46" s="14">
+      <c r="J46" s="14">
         <v>0.1036</v>
       </c>
-      <c r="J46" s="14">
+      <c r="K46" s="14">
         <v>0.1077</v>
       </c>
-      <c r="K46" s="14">
+      <c r="L46" s="14">
         <v>0.15440000000000001</v>
       </c>
-      <c r="L46" s="14">
+      <c r="M46" s="14">
         <v>0.1396</v>
       </c>
-      <c r="M46" s="14">
+      <c r="N46" s="14">
         <v>0.10100000000000001</v>
       </c>
-      <c r="N46" s="14">
+      <c r="O46" s="14">
         <v>0.1139</v>
       </c>
-      <c r="O46" s="14">
+      <c r="P46" s="14">
         <v>9.9199999999999997E-2</v>
       </c>
-      <c r="P46" s="14">
+      <c r="Q46" s="14">
         <v>0.12590000000000001</v>
       </c>
-      <c r="Q46" s="14">
+      <c r="R46" s="14">
         <v>0.10580000000000001</v>
       </c>
-      <c r="R46" s="14">
+      <c r="S46" s="14">
         <v>7.6600000000000001E-2</v>
       </c>
-      <c r="S46" s="14">
+      <c r="T46" s="14">
         <v>1.72E-2</v>
       </c>
-      <c r="T46" s="14">
+      <c r="U46" s="14">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="U46" s="14">
+      <c r="V46" s="14">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="V46" s="14">
+      <c r="W46" s="14">
         <v>-1.2699999999999999E-2</v>
       </c>
-      <c r="W46" s="14">
+      <c r="X46" s="14">
         <v>1.29E-2</v>
       </c>
-      <c r="X46" s="14">
+      <c r="Y46" s="14">
         <v>5.5599999999999997E-2</v>
       </c>
-      <c r="Y46" s="14">
+      <c r="Z46" s="14">
         <v>6.8099999999999994E-2</v>
       </c>
-      <c r="Z46" s="14">
+      <c r="AA46" s="14">
         <v>0.1173</v>
       </c>
-      <c r="AA46" s="14">
+      <c r="AB46" s="14">
         <v>0.1124</v>
       </c>
-      <c r="AB46" s="14">
+      <c r="AC46" s="14">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AC46" s="14">
+      <c r="AD46" s="14">
         <v>0.1003</v>
-      </c>
-      <c r="AD46" s="14">
-        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.25">
@@ -4388,91 +4391,91 @@
         <v>40</v>
       </c>
       <c r="B47" s="14">
+        <v>0.2387</v>
+      </c>
+      <c r="C47" s="14">
         <v>-1.3678999999999999</v>
       </c>
-      <c r="C47" s="14">
+      <c r="D47" s="14">
         <v>-0.70230000000000004</v>
       </c>
-      <c r="D47" s="14">
+      <c r="E47" s="14">
         <v>-2.0365000000000002</v>
       </c>
-      <c r="E47" s="14">
+      <c r="F47" s="14">
         <v>-2.9864000000000002</v>
       </c>
-      <c r="F47" s="14">
+      <c r="G47" s="14">
         <v>-0.1971</v>
       </c>
-      <c r="G47" s="14">
+      <c r="H47" s="14">
         <v>0.17169999999999999</v>
       </c>
-      <c r="H47" s="14">
+      <c r="I47" s="14">
         <v>-1.3563000000000001</v>
       </c>
-      <c r="I47" s="14">
+      <c r="J47" s="14">
         <v>4.1300000000000003E-2</v>
       </c>
-      <c r="J47" s="14">
+      <c r="K47" s="14">
         <v>-4.9299999999999997E-2</v>
       </c>
-      <c r="K47" s="14">
+      <c r="L47" s="14">
         <v>-0.52410000000000001</v>
       </c>
-      <c r="L47" s="14">
+      <c r="M47" s="14">
         <v>-1.3342000000000001</v>
       </c>
-      <c r="M47" s="14">
+      <c r="N47" s="14">
         <v>0.64129999999999998</v>
       </c>
-      <c r="N47" s="14">
+      <c r="O47" s="14">
         <v>0.17979999999999999</v>
       </c>
-      <c r="O47" s="14">
+      <c r="P47" s="14">
         <v>0.29399999999999998</v>
       </c>
-      <c r="P47" s="14">
+      <c r="Q47" s="14">
         <v>1.7745</v>
       </c>
-      <c r="Q47" s="14">
+      <c r="R47" s="14">
         <v>-0.4244</v>
       </c>
-      <c r="R47" s="14">
+      <c r="S47" s="14">
         <v>-0.74429999999999996</v>
       </c>
-      <c r="S47" s="14">
+      <c r="T47" s="14">
         <v>1.7483</v>
       </c>
-      <c r="T47" s="14">
+      <c r="U47" s="14">
         <v>-0.72199999999999998</v>
       </c>
-      <c r="U47" s="14">
+      <c r="V47" s="14">
         <v>0.40989999999999999</v>
       </c>
-      <c r="V47" s="14">
+      <c r="W47" s="14">
         <v>-2.5358000000000001</v>
       </c>
-      <c r="W47" s="14">
+      <c r="X47" s="14">
         <v>-0.47049999999999997</v>
       </c>
-      <c r="X47" s="14">
+      <c r="Y47" s="14">
         <v>3.2176999999999998</v>
       </c>
-      <c r="Y47" s="14">
+      <c r="Z47" s="14">
         <v>7.2190000000000003</v>
       </c>
-      <c r="Z47" s="14">
+      <c r="AA47" s="14">
         <v>1.915</v>
       </c>
-      <c r="AA47" s="14">
+      <c r="AB47" s="14">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="AB47" s="14">
+      <c r="AC47" s="14">
         <v>-3.9060999999999999</v>
       </c>
-      <c r="AC47" s="14">
+      <c r="AD47" s="14">
         <v>-6.3684000000000003</v>
-      </c>
-      <c r="AD47" s="14">
-        <v>-14.270300000000001</v>
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
